--- a/python/search_cells_with_keyword/excel/test1.xlsx
+++ b/python/search_cells_with_keyword/excel/test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myworkspace\python\aggregate_excel_cells\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myworkspace\python\search_cells_with_keyword\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC89572-F791-45A7-BC7B-213DC7555CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06020ED9-6DA8-469D-9AA3-AFD5D98F7B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,13 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>test1cell</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>happy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>happy test</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -385,15 +393,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BC888F-61F6-446B-80D7-E99E1EB05FBF}">
-  <dimension ref="E6"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="6" spans="5:5">
+    <row r="2" spans="2:5">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="E6" t="s">
         <v>1</v>
       </c>
